--- a/EstouALer.xlsx
+++ b/EstouALer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabiano\My Drive\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabiano\GitHub\estoualer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC658DC-51D7-43C7-8B2B-BF0997D508FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3015E39D-352F-4EB6-BF48-FB83F4690ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{07C76697-B037-41E1-92A7-C17B71BAAF16}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{07C76697-B037-41E1-92A7-C17B71BAAF16}"/>
   </bookViews>
   <sheets>
     <sheet name="Quadrinhos" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Livros!$A$1:$G$258</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Quadrinhos!$A$1:$F$1270</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Quadrinhos!$A$1:$F$1273</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4915" uniqueCount="1888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4928" uniqueCount="1893">
   <si>
     <t>Editora</t>
   </si>
@@ -5695,6 +5695,21 @@
   </si>
   <si>
     <t>1h 46m</t>
+  </si>
+  <si>
+    <t>Building Micro-Frontends</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Luca Mezzalira</t>
+  </si>
+  <si>
+    <t>Don't Toy with Me, Miss Nagatoro 13</t>
+  </si>
+  <si>
+    <t>Resurrection Of Magneto (2024-) #2</t>
+  </si>
+  <si>
+    <t>Justice League (1987-1996) #1</t>
   </si>
 </sst>
 </file>
@@ -6098,11 +6113,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D2ACD79-A82D-496A-A201-60AFEE476E06}">
-  <dimension ref="A1:F1271"/>
+  <dimension ref="A1:F1274"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1238" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1272" sqref="A1272"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1250" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1270" sqref="D1270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -31496,36 +31511,96 @@
       </c>
     </row>
     <row r="1270" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1270" s="3">
+        <v>45349</v>
+      </c>
       <c r="B1270" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="C1270" s="7" t="s">
+        <v>1890</v>
+      </c>
+      <c r="D1270" s="9" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E1270" s="5">
+        <v>194</v>
+      </c>
+      <c r="F1270" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1271" s="3">
+        <v>45350</v>
+      </c>
+      <c r="B1271" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1271" s="7" t="s">
+        <v>1891</v>
+      </c>
+      <c r="D1271" s="9" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E1271" s="5">
+        <v>24</v>
+      </c>
+      <c r="F1271" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1272" s="3">
+        <v>45350</v>
+      </c>
+      <c r="B1272" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1272" s="7" t="s">
+        <v>1892</v>
+      </c>
+      <c r="D1272" s="9" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E1272" s="5">
+        <v>27</v>
+      </c>
+      <c r="F1272" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1273" s="7" t="s">
         <v>1130</v>
       </c>
-      <c r="C1270" s="7" t="s">
+      <c r="C1273" s="7" t="s">
         <v>1264</v>
       </c>
-      <c r="D1270" s="9" t="s">
+      <c r="D1273" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E1270" s="5">
+      <c r="E1273" s="5">
         <v>112</v>
       </c>
-      <c r="F1270" s="5">
+      <c r="F1273" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="1271" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1271" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1271" s="7" t="s">
+    <row r="1274" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1274" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1274" s="7" t="s">
         <v>1878</v>
       </c>
-      <c r="D1271" s="9" t="s">
-        <v>1273</v>
-      </c>
-      <c r="E1271" s="5">
+      <c r="D1274" s="9" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E1274" s="5">
         <v>23</v>
       </c>
-      <c r="F1271" s="5">
+      <c r="F1274" s="5">
         <v>1</v>
       </c>
     </row>
@@ -31537,11 +31612,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79551D86-0145-49F3-84DA-60C50F53FB91}">
-  <dimension ref="A1:G258"/>
+  <dimension ref="A1:G259"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F173" sqref="F173"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A259" sqref="A259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -37457,6 +37532,20 @@
         <v>1137</v>
       </c>
     </row>
+    <row r="259" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B259" s="7" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C259" s="7" t="s">
+        <v>1888</v>
+      </c>
+      <c r="D259" s="7" t="s">
+        <v>1889</v>
+      </c>
+      <c r="E259" s="9" t="s">
+        <v>1273</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G258" xr:uid="{79551D86-0145-49F3-84DA-60C50F53FB91}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EstouALer.xlsx
+++ b/EstouALer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabiano\GitHub\estoualer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3015E39D-352F-4EB6-BF48-FB83F4690ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AD118D-36AF-4F0E-A1A5-489EF3032168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{07C76697-B037-41E1-92A7-C17B71BAAF16}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Livros!$A$1:$G$258</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Quadrinhos!$A$1:$F$1273</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Quadrinhos!$A$1:$F$1275</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4928" uniqueCount="1893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4934" uniqueCount="1895">
   <si>
     <t>Editora</t>
   </si>
@@ -5710,6 +5710,12 @@
   </si>
   <si>
     <t>Justice League (1987-1996) #1</t>
+  </si>
+  <si>
+    <t>W0Rldtr33 #7</t>
+  </si>
+  <si>
+    <t>Green Arrow (2023-) #9</t>
   </si>
 </sst>
 </file>
@@ -6113,11 +6119,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D2ACD79-A82D-496A-A201-60AFEE476E06}">
-  <dimension ref="A1:F1274"/>
+  <dimension ref="A1:F1276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1250" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1270" sqref="D1270"/>
+      <selection pane="bottomLeft" activeCell="B1277" sqref="B1277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -31571,28 +31577,34 @@
       </c>
     </row>
     <row r="1273" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1273" s="3">
+        <v>45352</v>
+      </c>
       <c r="B1273" s="7" t="s">
-        <v>1130</v>
+        <v>20</v>
       </c>
       <c r="C1273" s="7" t="s">
-        <v>1264</v>
+        <v>1893</v>
       </c>
       <c r="D1273" s="9" t="s">
-        <v>6</v>
+        <v>1273</v>
       </c>
       <c r="E1273" s="5">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="F1273" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1274" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1274" s="3">
+        <v>45352</v>
+      </c>
       <c r="B1274" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C1274" s="7" t="s">
-        <v>1878</v>
+        <v>1894</v>
       </c>
       <c r="D1274" s="9" t="s">
         <v>1273</v>
@@ -31601,6 +31613,40 @@
         <v>23</v>
       </c>
       <c r="F1274" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1275" s="7" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C1275" s="7" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D1275" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1275" s="5">
+        <v>112</v>
+      </c>
+      <c r="F1275" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1276" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1276" s="7" t="s">
+        <v>1878</v>
+      </c>
+      <c r="D1276" s="9" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E1276" s="5">
+        <v>23</v>
+      </c>
+      <c r="F1276" s="5">
         <v>1</v>
       </c>
     </row>

--- a/EstouALer.xlsx
+++ b/EstouALer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabiano\GitHub\estoualer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AD118D-36AF-4F0E-A1A5-489EF3032168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24F6467-7EB7-4995-A759-4C891D523DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{07C76697-B037-41E1-92A7-C17B71BAAF16}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Livros!$A$1:$G$258</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Quadrinhos!$A$1:$F$1275</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Quadrinhos!$A$1:$F$1277</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4934" uniqueCount="1895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4940" uniqueCount="1897">
   <si>
     <t>Editora</t>
   </si>
@@ -5716,6 +5716,12 @@
   </si>
   <si>
     <t>Green Arrow (2023-) #9</t>
+  </si>
+  <si>
+    <t>Mouse Guard Vol. 2: Winter 1152</t>
+  </si>
+  <si>
+    <t>X-Men (2021-) #32</t>
   </si>
 </sst>
 </file>
@@ -6119,11 +6125,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D2ACD79-A82D-496A-A201-60AFEE476E06}">
-  <dimension ref="A1:F1276"/>
+  <dimension ref="A1:F1278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1250" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1277" sqref="B1277"/>
+      <pane ySplit="1" topLeftCell="A1253" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1279" sqref="B1279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -31617,28 +31623,34 @@
       </c>
     </row>
     <row r="1275" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1275" s="3">
+        <v>45357</v>
+      </c>
       <c r="B1275" s="7" t="s">
-        <v>1130</v>
+        <v>1865</v>
       </c>
       <c r="C1275" s="7" t="s">
-        <v>1264</v>
+        <v>1895</v>
       </c>
       <c r="D1275" s="9" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E1275" s="5">
+        <v>186</v>
+      </c>
+      <c r="F1275" s="5">
         <v>6</v>
       </c>
-      <c r="E1275" s="5">
-        <v>112</v>
-      </c>
-      <c r="F1275" s="5">
-        <v>2</v>
-      </c>
     </row>
     <row r="1276" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1276" s="3">
+        <v>45357</v>
+      </c>
       <c r="B1276" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C1276" s="7" t="s">
-        <v>1878</v>
+        <v>1896</v>
       </c>
       <c r="D1276" s="9" t="s">
         <v>1273</v>
@@ -31647,6 +31659,40 @@
         <v>23</v>
       </c>
       <c r="F1276" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1277" s="7" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C1277" s="7" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D1277" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1277" s="5">
+        <v>112</v>
+      </c>
+      <c r="F1277" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1278" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1278" s="7" t="s">
+        <v>1878</v>
+      </c>
+      <c r="D1278" s="9" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E1278" s="5">
+        <v>23</v>
+      </c>
+      <c r="F1278" s="5">
         <v>1</v>
       </c>
     </row>

--- a/EstouALer.xlsx
+++ b/EstouALer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabiano\GitHub\estoualer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24F6467-7EB7-4995-A759-4C891D523DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C90E9B-B852-426E-BFD1-208CE7CA8071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{07C76697-B037-41E1-92A7-C17B71BAAF16}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Livros!$A$1:$G$258</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Quadrinhos!$A$1:$F$1277</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Quadrinhos!$A$1:$F$1279</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4940" uniqueCount="1897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4946" uniqueCount="1899">
   <si>
     <t>Editora</t>
   </si>
@@ -5722,6 +5722,12 @@
   </si>
   <si>
     <t>X-Men (2021-) #32</t>
+  </si>
+  <si>
+    <t>Don't Toy with Me, Miss Nagatoro 14</t>
+  </si>
+  <si>
+    <t>Don't Toy with Me, Miss Nagatoro 15</t>
   </si>
 </sst>
 </file>
@@ -6125,11 +6131,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D2ACD79-A82D-496A-A201-60AFEE476E06}">
-  <dimension ref="A1:F1278"/>
+  <dimension ref="A1:F1280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1253" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1279" sqref="B1279"/>
+      <selection pane="bottomLeft" activeCell="E1278" sqref="E1278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -31663,36 +31669,76 @@
       </c>
     </row>
     <row r="1277" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1277" s="3">
+        <v>45360</v>
+      </c>
       <c r="B1277" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="C1277" s="7" t="s">
+        <v>1897</v>
+      </c>
+      <c r="D1277" s="9" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E1277" s="5">
+        <v>176</v>
+      </c>
+      <c r="F1277" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1278" s="3">
+        <v>45362</v>
+      </c>
+      <c r="B1278" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="C1278" s="7" t="s">
+        <v>1898</v>
+      </c>
+      <c r="D1278" s="9" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E1278" s="5">
+        <v>194</v>
+      </c>
+      <c r="F1278" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1279" s="7" t="s">
         <v>1130</v>
       </c>
-      <c r="C1277" s="7" t="s">
+      <c r="C1279" s="7" t="s">
         <v>1264</v>
       </c>
-      <c r="D1277" s="9" t="s">
+      <c r="D1279" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E1277" s="5">
+      <c r="E1279" s="5">
         <v>112</v>
       </c>
-      <c r="F1277" s="5">
+      <c r="F1279" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="1278" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1278" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1278" s="7" t="s">
+    <row r="1280" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1280" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1280" s="7" t="s">
         <v>1878</v>
       </c>
-      <c r="D1278" s="9" t="s">
-        <v>1273</v>
-      </c>
-      <c r="E1278" s="5">
+      <c r="D1280" s="9" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E1280" s="5">
         <v>23</v>
       </c>
-      <c r="F1278" s="5">
+      <c r="F1280" s="5">
         <v>1</v>
       </c>
     </row>

--- a/EstouALer.xlsx
+++ b/EstouALer.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabiano\GitHub\estoualer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8E73A6-833C-41CC-A666-1B284F1CD1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E546703A-2BE5-4875-9899-E23F76E49821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{07C76697-B037-41E1-92A7-C17B71BAAF16}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{07C76697-B037-41E1-92A7-C17B71BAAF16}"/>
   </bookViews>
   <sheets>
     <sheet name="Quadrinhos" sheetId="1" r:id="rId1"/>
     <sheet name="Livros" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Livros!$A$1:$G$259</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Livros!$A$1:$G$260</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Quadrinhos!$A$1:$F$1281</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -5685,9 +5685,6 @@
     <t>1h 16m</t>
   </si>
   <si>
-    <t>1h and 12m</t>
-  </si>
-  <si>
     <t>1h 1m</t>
   </si>
   <si>
@@ -5737,6 +5734,9 @@
   </si>
   <si>
     <t>Homo Deus: A Brief History of Tomorrow</t>
+  </si>
+  <si>
+    <t>1h 12m</t>
   </si>
 </sst>
 </file>
@@ -6142,7 +6142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D2ACD79-A82D-496A-A201-60AFEE476E06}">
   <dimension ref="A1:F1282"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1264" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A1283" sqref="A1283"/>
     </sheetView>
@@ -31545,7 +31545,7 @@
         <v>473</v>
       </c>
       <c r="C1270" s="7" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="D1270" s="9" t="s">
         <v>1273</v>
@@ -31565,7 +31565,7 @@
         <v>31</v>
       </c>
       <c r="C1271" s="7" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="D1271" s="9" t="s">
         <v>1273</v>
@@ -31585,7 +31585,7 @@
         <v>17</v>
       </c>
       <c r="C1272" s="7" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="D1272" s="9" t="s">
         <v>1273</v>
@@ -31605,7 +31605,7 @@
         <v>20</v>
       </c>
       <c r="C1273" s="7" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="D1273" s="9" t="s">
         <v>1273</v>
@@ -31625,7 +31625,7 @@
         <v>17</v>
       </c>
       <c r="C1274" s="7" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="D1274" s="9" t="s">
         <v>1273</v>
@@ -31645,7 +31645,7 @@
         <v>1865</v>
       </c>
       <c r="C1275" s="7" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="D1275" s="9" t="s">
         <v>1273</v>
@@ -31665,7 +31665,7 @@
         <v>31</v>
       </c>
       <c r="C1276" s="7" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="D1276" s="9" t="s">
         <v>1273</v>
@@ -31685,7 +31685,7 @@
         <v>473</v>
       </c>
       <c r="C1277" s="7" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="D1277" s="9" t="s">
         <v>1273</v>
@@ -31705,7 +31705,7 @@
         <v>473</v>
       </c>
       <c r="C1278" s="7" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="D1278" s="9" t="s">
         <v>1273</v>
@@ -31725,7 +31725,7 @@
         <v>31</v>
       </c>
       <c r="C1279" s="7" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="D1279" s="9" t="s">
         <v>1273</v>
@@ -31745,7 +31745,7 @@
         <v>473</v>
       </c>
       <c r="C1280" s="7" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="D1280" s="9" t="s">
         <v>1273</v>
@@ -31801,9 +31801,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79551D86-0145-49F3-84DA-60C50F53FB91}">
   <dimension ref="A1:G260"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A261" sqref="A261"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F190" sqref="F190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -35684,7 +35684,7 @@
         <v>1477</v>
       </c>
       <c r="F169" s="9" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="G169" s="5">
         <v>3</v>
@@ -36144,7 +36144,7 @@
         <v>1477</v>
       </c>
       <c r="F189" s="9" t="s">
-        <v>1884</v>
+        <v>1901</v>
       </c>
       <c r="G189" s="5">
         <v>2</v>
@@ -36190,7 +36190,7 @@
         <v>1477</v>
       </c>
       <c r="F191" s="9" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="G191" s="5">
         <v>4</v>
@@ -36351,7 +36351,7 @@
         <v>1477</v>
       </c>
       <c r="F198" s="9" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="G198" s="5">
         <v>1</v>
@@ -37693,7 +37693,7 @@
         <v>1474</v>
       </c>
       <c r="C257" s="7" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="D257" s="7" t="s">
         <v>1824</v>
@@ -37747,17 +37747,17 @@
         <v>1542</v>
       </c>
       <c r="C260" s="7" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D260" s="7" t="s">
         <v>1888</v>
       </c>
-      <c r="D260" s="7" t="s">
-        <v>1889</v>
-      </c>
       <c r="E260" s="9" t="s">
         <v>1273</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G259" xr:uid="{79551D86-0145-49F3-84DA-60C50F53FB91}"/>
+  <autoFilter ref="A1:G260" xr:uid="{79551D86-0145-49F3-84DA-60C50F53FB91}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>

--- a/EstouALer.xlsx
+++ b/EstouALer.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabiano\GitHub\estoualer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255F137C-4749-4A8A-BEB2-A98DE92715AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19BFDF0-2B32-4845-B7BE-44DADECCDBD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" xr2:uid="{07C76697-B037-41E1-92A7-C17B71BAAF16}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" activeTab="1" xr2:uid="{07C76697-B037-41E1-92A7-C17B71BAAF16}"/>
   </bookViews>
   <sheets>
     <sheet name="Quadrinhos" sheetId="1" r:id="rId1"/>
     <sheet name="Livros" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Livros!$A$1:$G$260</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Livros!$A$1:$G$262</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Quadrinhos!$A$1:$F$1281</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4980" uniqueCount="1911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5013" uniqueCount="1926">
   <si>
     <t>Editora</t>
   </si>
@@ -5764,6 +5764,51 @@
   </si>
   <si>
     <t>Transformers #5</t>
+  </si>
+  <si>
+    <t>Floresta é o nome do mundo</t>
+  </si>
+  <si>
+    <t>Morro Branco</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>The Long Earth: A Novel</t>
+  </si>
+  <si>
+    <t>Terry Pratchett</t>
+  </si>
+  <si>
+    <t>11h</t>
+  </si>
+  <si>
+    <t>Amazing Spider-Man (1963-1998) #230</t>
+  </si>
+  <si>
+    <t>X-Men (2021-) #33</t>
+  </si>
+  <si>
+    <t>W0Rldtr33 #8</t>
+  </si>
+  <si>
+    <t>Incredible Hulk (2023-) #10</t>
+  </si>
+  <si>
+    <t>Rise Of The Powers Of X (2024-) #3 (of 5)</t>
+  </si>
+  <si>
+    <t>Green Arrow (2023-) #10</t>
+  </si>
+  <si>
+    <t>Flores azuis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Carola Saavedra</t>
+  </si>
+  <si>
+    <t>156</t>
   </si>
 </sst>
 </file>
@@ -6167,11 +6212,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D2ACD79-A82D-496A-A201-60AFEE476E06}">
-  <dimension ref="A1:F1288"/>
+  <dimension ref="A1:F1294"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1279" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1288" sqref="A1288"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1270" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1293" sqref="B1293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.75"/>
@@ -31944,6 +31989,126 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1289" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A1289" s="3">
+        <v>45377</v>
+      </c>
+      <c r="B1289" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1289" s="7" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D1289" s="9" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E1289" s="5">
+        <v>36</v>
+      </c>
+      <c r="F1289" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A1290" s="3">
+        <v>45378</v>
+      </c>
+      <c r="B1290" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1290" s="7" t="s">
+        <v>1920</v>
+      </c>
+      <c r="D1290" s="9" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E1290" s="5">
+        <v>24</v>
+      </c>
+      <c r="F1290" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A1291" s="3">
+        <v>45378</v>
+      </c>
+      <c r="B1291" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1291" s="7" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D1291" s="9" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E1291" s="5">
+        <v>27</v>
+      </c>
+      <c r="F1291" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A1292" s="3">
+        <v>45377</v>
+      </c>
+      <c r="B1292" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1292" s="7" t="s">
+        <v>1922</v>
+      </c>
+      <c r="D1292" s="9" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E1292" s="5">
+        <v>23</v>
+      </c>
+      <c r="F1292" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A1293" s="3">
+        <v>45383</v>
+      </c>
+      <c r="B1293" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1293" s="7" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D1293" s="9" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E1293" s="5">
+        <v>23</v>
+      </c>
+      <c r="F1293" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A1294" s="3">
+        <v>45385</v>
+      </c>
+      <c r="B1294" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1294" s="7" t="s">
+        <v>1918</v>
+      </c>
+      <c r="D1294" s="9" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E1294" s="5">
+        <v>22</v>
+      </c>
+      <c r="F1294" s="5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F1198" xr:uid="{6D2ACD79-A82D-496A-A201-60AFEE476E06}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31952,11 +32117,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79551D86-0145-49F3-84DA-60C50F53FB91}">
-  <dimension ref="A1:G261"/>
+  <dimension ref="A1:G264"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A261" sqref="A261"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A262" sqref="A262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.75"/>
@@ -37862,6 +38027,9 @@
       </c>
     </row>
     <row r="258" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A258" s="3">
+        <v>45371</v>
+      </c>
       <c r="B258" s="7" t="s">
         <v>1785</v>
       </c>
@@ -37877,8 +38045,14 @@
       <c r="F258" s="9">
         <v>473</v>
       </c>
+      <c r="G258" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="259" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A259" s="3">
+        <v>45394</v>
+      </c>
       <c r="B259" s="7" t="s">
         <v>1788</v>
       </c>
@@ -37894,40 +38068,103 @@
       <c r="F259" s="9">
         <v>1137</v>
       </c>
+      <c r="G259" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="260" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A260" s="3">
+        <v>45395</v>
+      </c>
       <c r="B260" s="7" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C260" s="7" t="s">
+        <v>1900</v>
+      </c>
+      <c r="D260" s="7" t="s">
+        <v>1901</v>
+      </c>
+      <c r="E260" s="9" t="s">
+        <v>1477</v>
+      </c>
+      <c r="F260" s="9" t="s">
+        <v>1746</v>
+      </c>
+      <c r="G260" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A261" s="3">
+        <v>45397</v>
+      </c>
+      <c r="B261" s="7" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C261" s="7" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D261" s="7" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E261" s="9" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F261" s="9" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="B262" s="7" t="s">
         <v>1542</v>
       </c>
-      <c r="C260" s="7" t="s">
+      <c r="C262" s="7" t="s">
         <v>1885</v>
       </c>
-      <c r="D260" s="7" t="s">
+      <c r="D262" s="7" t="s">
         <v>1902</v>
       </c>
-      <c r="E260" s="9" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B261" s="7" t="s">
-        <v>1903</v>
-      </c>
-      <c r="C261" s="7" t="s">
-        <v>1900</v>
-      </c>
-      <c r="D261" s="7" t="s">
-        <v>1901</v>
-      </c>
-      <c r="E261" s="9" t="s">
+      <c r="E262" s="9" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="B263" s="7" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C263" s="7" t="s">
+        <v>1914</v>
+      </c>
+      <c r="D263" s="7" t="s">
+        <v>1915</v>
+      </c>
+      <c r="E263" s="9" t="s">
         <v>1477</v>
       </c>
-      <c r="F261" s="9" t="s">
-        <v>1746</v>
+      <c r="F263" s="9" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="B264" s="7" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C264" s="7" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D264" s="7" t="s">
+        <v>1924</v>
+      </c>
+      <c r="E264" s="9" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F264" s="9" t="s">
+        <v>1925</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G260" xr:uid="{79551D86-0145-49F3-84DA-60C50F53FB91}"/>
+  <autoFilter ref="A1:G262" xr:uid="{79551D86-0145-49F3-84DA-60C50F53FB91}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>

--- a/EstouALer.xlsx
+++ b/EstouALer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabiano\GitHub\estoualer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E34B81E-1638-40A6-BF33-50A3D64DB52C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75190BEE-F076-41F7-9434-E633B8BB3403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{07C76697-B037-41E1-92A7-C17B71BAAF16}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5022" uniqueCount="1929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5040" uniqueCount="1935">
   <si>
     <t>Editora</t>
   </si>
@@ -5818,6 +5818,24 @@
   </si>
   <si>
     <t>Stargirl: The Lost Children</t>
+  </si>
+  <si>
+    <t>Wonder Woman (2023-) #8</t>
+  </si>
+  <si>
+    <t>Resurrection Of Magneto (2024-) #4 (of 4)</t>
+  </si>
+  <si>
+    <t>Green Arrow (2023-) #11</t>
+  </si>
+  <si>
+    <t>X-Men: Forever (2024-) #2 (of 4)</t>
+  </si>
+  <si>
+    <t>Rise Of The Powers Of X (2024-) #4 (of 5)</t>
+  </si>
+  <si>
+    <t>Fall Of The House Of X (2024-) #4 (of 5)</t>
   </si>
 </sst>
 </file>
@@ -6221,11 +6239,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D2ACD79-A82D-496A-A201-60AFEE476E06}">
-  <dimension ref="A1:F1297"/>
+  <dimension ref="A1:F1303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1270" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1298" sqref="A1298"/>
+      <pane ySplit="1" topLeftCell="A1276" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1304" sqref="A1304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -32120,19 +32138,19 @@
     </row>
     <row r="1295" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1295" s="3">
-        <v>45398</v>
+        <v>45392</v>
       </c>
       <c r="B1295" s="7" t="s">
-        <v>1849</v>
+        <v>31</v>
       </c>
       <c r="C1295" s="7" t="s">
-        <v>1926</v>
+        <v>1930</v>
       </c>
       <c r="D1295" s="9" t="s">
         <v>1273</v>
       </c>
       <c r="E1295" s="5">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F1295" s="5">
         <v>1</v>
@@ -32143,16 +32161,16 @@
         <v>45398</v>
       </c>
       <c r="B1296" s="7" t="s">
-        <v>31</v>
+        <v>1849</v>
       </c>
       <c r="C1296" s="7" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="D1296" s="9" t="s">
         <v>1273</v>
       </c>
       <c r="E1296" s="5">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F1296" s="5">
         <v>1</v>
@@ -32163,18 +32181,138 @@
         <v>45398</v>
       </c>
       <c r="B1297" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1297" s="7" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D1297" s="9" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E1297" s="5">
+        <v>25</v>
+      </c>
+      <c r="F1297" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1298" s="3">
+        <v>45398</v>
+      </c>
+      <c r="B1298" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C1297" s="7" t="s">
+      <c r="C1298" s="7" t="s">
         <v>1928</v>
       </c>
-      <c r="D1297" s="9" t="s">
-        <v>1273</v>
-      </c>
-      <c r="E1297" s="5">
+      <c r="D1298" s="9" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E1298" s="5">
+        <v>184</v>
+      </c>
+      <c r="F1298" s="5">
         <v>7</v>
       </c>
-      <c r="F1297" s="5">
+    </row>
+    <row r="1299" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1299" s="3">
+        <v>45398</v>
+      </c>
+      <c r="B1299" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1299" s="7" t="s">
+        <v>1929</v>
+      </c>
+      <c r="D1299" s="9" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E1299" s="5">
+        <v>34</v>
+      </c>
+      <c r="F1299" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1300" s="3">
+        <v>45399</v>
+      </c>
+      <c r="B1300" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1300" s="7" t="s">
+        <v>1934</v>
+      </c>
+      <c r="D1300" s="9" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E1300" s="5">
+        <v>28</v>
+      </c>
+      <c r="F1300" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1301" s="3">
+        <v>45405</v>
+      </c>
+      <c r="B1301" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1301" s="7" t="s">
+        <v>1931</v>
+      </c>
+      <c r="D1301" s="9" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E1301" s="5">
+        <v>22</v>
+      </c>
+      <c r="F1301" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1302" s="3">
+        <v>45406</v>
+      </c>
+      <c r="B1302" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1302" s="7" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1302" s="9" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E1302" s="5">
+        <v>28</v>
+      </c>
+      <c r="F1302" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1303" s="3">
+        <v>45406</v>
+      </c>
+      <c r="B1303" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1303" s="7" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D1303" s="9" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E1303" s="5">
+        <v>24</v>
+      </c>
+      <c r="F1303" s="5">
         <v>1</v>
       </c>
     </row>

--- a/EstouALer.xlsx
+++ b/EstouALer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabiano\GitHub\estoualer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75190BEE-F076-41F7-9434-E633B8BB3403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A03A08B-00CC-45F5-975B-53623E1CB28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{07C76697-B037-41E1-92A7-C17B71BAAF16}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Livros" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Livros!$A$1:$G$262</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Livros!$A$1:$G$263</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Quadrinhos!$A$1:$F$1281</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5040" uniqueCount="1935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5047" uniqueCount="1938">
   <si>
     <t>Editora</t>
   </si>
@@ -5805,9 +5805,6 @@
     <t>Flores azuis</t>
   </si>
   <si>
-    <t xml:space="preserve"> Carola Saavedra</t>
-  </si>
-  <si>
     <t>156</t>
   </si>
   <si>
@@ -5836,6 +5833,18 @@
   </si>
   <si>
     <t>Fall Of The House Of X (2024-) #4 (of 5)</t>
+  </si>
+  <si>
+    <t>X-Men (2021-) #34</t>
+  </si>
+  <si>
+    <t>Carola Saavedra</t>
+  </si>
+  <si>
+    <t>317</t>
+  </si>
+  <si>
+    <t>Incredible Hulk (2023-) #12</t>
   </si>
 </sst>
 </file>
@@ -6239,11 +6248,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D2ACD79-A82D-496A-A201-60AFEE476E06}">
-  <dimension ref="A1:F1303"/>
+  <dimension ref="A1:F1305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1276" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1304" sqref="A1304"/>
+      <selection pane="bottomLeft" activeCell="C1305" sqref="C1305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -32144,7 +32153,7 @@
         <v>31</v>
       </c>
       <c r="C1295" s="7" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="D1295" s="9" t="s">
         <v>1273</v>
@@ -32164,7 +32173,7 @@
         <v>1849</v>
       </c>
       <c r="C1296" s="7" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="D1296" s="9" t="s">
         <v>1273</v>
@@ -32184,7 +32193,7 @@
         <v>31</v>
       </c>
       <c r="C1297" s="7" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="D1297" s="9" t="s">
         <v>1273</v>
@@ -32204,7 +32213,7 @@
         <v>17</v>
       </c>
       <c r="C1298" s="7" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="D1298" s="9" t="s">
         <v>1273</v>
@@ -32224,7 +32233,7 @@
         <v>17</v>
       </c>
       <c r="C1299" s="7" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="D1299" s="9" t="s">
         <v>1273</v>
@@ -32244,7 +32253,7 @@
         <v>31</v>
       </c>
       <c r="C1300" s="7" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="D1300" s="9" t="s">
         <v>1273</v>
@@ -32264,7 +32273,7 @@
         <v>17</v>
       </c>
       <c r="C1301" s="7" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="D1301" s="9" t="s">
         <v>1273</v>
@@ -32284,7 +32293,7 @@
         <v>31</v>
       </c>
       <c r="C1302" s="7" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="D1302" s="9" t="s">
         <v>1273</v>
@@ -32304,7 +32313,7 @@
         <v>31</v>
       </c>
       <c r="C1303" s="7" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="D1303" s="9" t="s">
         <v>1273</v>
@@ -32313,6 +32322,46 @@
         <v>24</v>
       </c>
       <c r="F1303" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1304" s="3">
+        <v>45413</v>
+      </c>
+      <c r="B1304" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1304" s="7" t="s">
+        <v>1934</v>
+      </c>
+      <c r="D1304" s="9" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E1304" s="5">
+        <v>24</v>
+      </c>
+      <c r="F1304" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1305" s="3">
+        <v>45413</v>
+      </c>
+      <c r="B1305" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1305" s="7" t="s">
+        <v>1937</v>
+      </c>
+      <c r="D1305" s="9" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E1305" s="5">
+        <v>17</v>
+      </c>
+      <c r="F1305" s="5">
         <v>1</v>
       </c>
     </row>
@@ -32327,8 +32376,8 @@
   <dimension ref="A1:G264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A262" sqref="A262"/>
+      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A265" sqref="A265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -38321,61 +38370,73 @@
       <c r="F261" s="9" t="s">
         <v>1913</v>
       </c>
+      <c r="G261" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="262" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A262" s="3">
+        <v>45412</v>
+      </c>
       <c r="B262" s="7" t="s">
-        <v>1542</v>
+        <v>1569</v>
       </c>
       <c r="C262" s="7" t="s">
-        <v>1885</v>
+        <v>1923</v>
       </c>
       <c r="D262" s="7" t="s">
-        <v>1902</v>
+        <v>1935</v>
       </c>
       <c r="E262" s="9" t="s">
         <v>1273</v>
+      </c>
+      <c r="F262" s="9" t="s">
+        <v>1924</v>
+      </c>
+      <c r="G262" s="5">
+        <v>5</v>
       </c>
     </row>
     <row r="263" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B263" s="7" t="s">
-        <v>1474</v>
+        <v>1542</v>
       </c>
       <c r="C263" s="7" t="s">
-        <v>1914</v>
+        <v>1885</v>
       </c>
       <c r="D263" s="7" t="s">
-        <v>1915</v>
+        <v>1902</v>
       </c>
       <c r="E263" s="9" t="s">
-        <v>1477</v>
+        <v>1273</v>
       </c>
       <c r="F263" s="9" t="s">
-        <v>1916</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="264" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B264" s="7" t="s">
-        <v>1569</v>
+        <v>1474</v>
       </c>
       <c r="C264" s="7" t="s">
-        <v>1923</v>
+        <v>1914</v>
       </c>
       <c r="D264" s="7" t="s">
-        <v>1924</v>
+        <v>1915</v>
       </c>
       <c r="E264" s="9" t="s">
-        <v>1273</v>
+        <v>1477</v>
       </c>
       <c r="F264" s="9" t="s">
-        <v>1925</v>
+        <v>1916</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G262" xr:uid="{79551D86-0145-49F3-84DA-60C50F53FB91}"/>
+  <autoFilter ref="A1:G263" xr:uid="{79551D86-0145-49F3-84DA-60C50F53FB91}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C4 C31" numberStoredAsText="1"/>
+    <ignoredError sqref="C4 C31 F261:F263" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/EstouALer.xlsx
+++ b/EstouALer.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5060" uniqueCount="1944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5075" uniqueCount="1949">
   <si>
     <t xml:space="preserve">Lido em</t>
   </si>
@@ -4156,6 +4156,21 @@
   </si>
   <si>
     <t xml:space="preserve">X-Men: Forever (2024-) #3 (of 4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X-Men: Forever (2024-) #4 (of 4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wonder Woman (2023-) #9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fall Of The House Of X (2024-) #5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rise Of The Powers Of X (2024-) #5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green Arrow (2023-) #12</t>
   </si>
   <si>
     <t xml:space="preserve">Autor</t>
@@ -6009,7 +6024,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -6044,6 +6059,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -6284,12 +6303,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1306"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A1299" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1307" activeCellId="0" sqref="A1307"/>
+      <selection pane="bottomLeft" activeCell="A1312" activeCellId="0" sqref="A1312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32422,6 +32441,108 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1307" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1307" s="1" t="n">
+        <v>45427</v>
+      </c>
+      <c r="B1307" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1307" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D1307" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1307" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="F1307" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1308" s="9" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1308" s="1" t="n">
+        <v>45433</v>
+      </c>
+      <c r="B1308" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1308" s="2" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D1308" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1308" s="4" t="n">
+        <v>35</v>
+      </c>
+      <c r="F1308" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1309" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1309" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="B1309" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1309" s="2" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D1309" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1309" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="F1309" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1310" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1310" s="1" t="n">
+        <v>45441</v>
+      </c>
+      <c r="B1310" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1310" s="2" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D1310" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1310" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="F1310" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1311" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1311" s="1" t="n">
+        <v>45441</v>
+      </c>
+      <c r="B1311" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1311" s="2" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D1311" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1311" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="F1311" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:F1281"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -32461,26 +32582,26 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>1377</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="D1" s="11" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>1378</v>
+      <c r="G1" s="12" t="s">
+        <v>1383</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32488,10 +32609,10 @@
         <v>41630</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1379</v>
+        <v>1384</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1380</v>
+        <v>1385</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>15</v>
@@ -32508,13 +32629,13 @@
         <v>41649</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1381</v>
+        <v>1386</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1382</v>
+        <v>1387</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1383</v>
+        <v>1388</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>21</v>
@@ -32531,13 +32652,13 @@
         <v>41652</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1384</v>
+        <v>1389</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1385</v>
+        <v>1390</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1386</v>
+        <v>1391</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>21</v>
@@ -32554,13 +32675,13 @@
         <v>41714</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1387</v>
+        <v>1392</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1388</v>
+        <v>1393</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>15</v>
@@ -32577,13 +32698,13 @@
         <v>41720</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1392</v>
+        <v>1397</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>21</v>
@@ -32600,13 +32721,13 @@
         <v>41724</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1393</v>
+        <v>1398</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1394</v>
+        <v>1399</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1395</v>
+        <v>1400</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>8</v>
@@ -32623,13 +32744,13 @@
         <v>41774</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1396</v>
+        <v>1401</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1397</v>
+        <v>1402</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1398</v>
+        <v>1403</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>21</v>
@@ -32646,13 +32767,13 @@
         <v>41780</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1399</v>
+        <v>1404</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1392</v>
+        <v>1397</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>21</v>
@@ -32669,13 +32790,13 @@
         <v>41788</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1400</v>
+        <v>1405</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1401</v>
+        <v>1406</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>1402</v>
+        <v>1407</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>21</v>
@@ -32692,13 +32813,13 @@
         <v>41837</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1403</v>
+        <v>1408</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1404</v>
+        <v>1409</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>1405</v>
+        <v>1410</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>21</v>
@@ -32715,13 +32836,13 @@
         <v>41838</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1406</v>
+        <v>1411</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1407</v>
+        <v>1412</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>1408</v>
+        <v>1413</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>21</v>
@@ -32738,13 +32859,13 @@
         <v>41870</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1403</v>
+        <v>1408</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>1409</v>
+        <v>1414</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>1410</v>
+        <v>1415</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>15</v>
@@ -32761,13 +32882,13 @@
         <v>41906</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1411</v>
+        <v>1416</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>1412</v>
+        <v>1417</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>1413</v>
+        <v>1418</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>15</v>
@@ -32784,13 +32905,13 @@
         <v>41910</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1414</v>
+        <v>1419</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>1415</v>
+        <v>1420</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>1416</v>
+        <v>1421</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>21</v>
@@ -32807,13 +32928,13 @@
         <v>41925</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1417</v>
+        <v>1422</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>1418</v>
+        <v>1423</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>1419</v>
+        <v>1424</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>21</v>
@@ -32833,10 +32954,10 @@
         <v>87</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>1420</v>
+        <v>1425</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>1421</v>
+        <v>1426</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>15</v>
@@ -32853,13 +32974,13 @@
         <v>41987</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>1422</v>
+        <v>1427</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>1423</v>
+        <v>1428</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>1392</v>
+        <v>1397</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>21</v>
@@ -32876,13 +32997,13 @@
         <v>42000</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>1384</v>
+        <v>1389</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>1424</v>
+        <v>1429</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>1386</v>
+        <v>1391</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>15</v>
@@ -32899,13 +33020,13 @@
         <v>42004</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1384</v>
+        <v>1389</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>1425</v>
+        <v>1430</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>1386</v>
+        <v>1391</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>21</v>
@@ -32922,13 +33043,13 @@
         <v>42010</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1384</v>
+        <v>1389</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>1426</v>
+        <v>1431</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>1386</v>
+        <v>1391</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>21</v>
@@ -32945,13 +33066,13 @@
         <v>42028</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1427</v>
+        <v>1432</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>1428</v>
+        <v>1433</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>1429</v>
+        <v>1434</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>21</v>
@@ -32968,13 +33089,13 @@
         <v>42029</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1430</v>
+        <v>1435</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>1431</v>
+        <v>1436</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>1432</v>
+        <v>1437</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>21</v>
@@ -32991,13 +33112,13 @@
         <v>42035</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1433</v>
+        <v>1438</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>1434</v>
+        <v>1439</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>1435</v>
+        <v>1440</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>21</v>
@@ -33014,13 +33135,13 @@
         <v>42051</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1430</v>
+        <v>1435</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>1436</v>
+        <v>1441</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>21</v>
@@ -33037,13 +33158,13 @@
         <v>42076</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1438</v>
+        <v>1443</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>1439</v>
+        <v>1444</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>1440</v>
+        <v>1445</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>21</v>
@@ -33060,13 +33181,13 @@
         <v>42117</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1384</v>
+        <v>1389</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>1441</v>
+        <v>1446</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>1386</v>
+        <v>1391</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>21</v>
@@ -33083,13 +33204,13 @@
         <v>42119</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1400</v>
+        <v>1405</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>1442</v>
+        <v>1447</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>1443</v>
+        <v>1448</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>21</v>
@@ -33106,13 +33227,13 @@
         <v>42120</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1403</v>
+        <v>1408</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>1444</v>
+        <v>1449</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>1445</v>
+        <v>1450</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>21</v>
@@ -33129,13 +33250,13 @@
         <v>42158</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1446</v>
+        <v>1451</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>1447</v>
+        <v>1452</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>1448</v>
+        <v>1453</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>21</v>
@@ -33152,13 +33273,13 @@
         <v>42167</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>1449</v>
+        <v>1454</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>1450</v>
+        <v>1455</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>21</v>
@@ -33175,13 +33296,13 @@
         <v>42182</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1403</v>
+        <v>1408</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>1451</v>
+        <v>1456</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>1452</v>
+        <v>1457</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>21</v>
@@ -33198,13 +33319,13 @@
         <v>42220</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>1417</v>
+        <v>1422</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>1453</v>
+        <v>1458</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>1454</v>
+        <v>1459</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>21</v>
@@ -33221,13 +33342,13 @@
         <v>42238</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>1455</v>
+        <v>1460</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>1456</v>
+        <v>1461</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>1457</v>
+        <v>1462</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>21</v>
@@ -33244,10 +33365,10 @@
         <v>42241</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>1458</v>
+        <v>1463</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>1459</v>
+        <v>1464</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>21</v>
@@ -33264,13 +33385,13 @@
         <v>42247</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>1417</v>
+        <v>1422</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>1460</v>
+        <v>1465</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>1461</v>
+        <v>1466</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>21</v>
@@ -33287,13 +33408,13 @@
         <v>42248</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1417</v>
+        <v>1422</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>1462</v>
+        <v>1467</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>1461</v>
+        <v>1466</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>21</v>
@@ -33310,13 +33431,13 @@
         <v>42275</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1463</v>
+        <v>1468</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>1464</v>
+        <v>1469</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>1465</v>
+        <v>1470</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>15</v>
@@ -33333,10 +33454,10 @@
         <v>42308</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>1466</v>
+        <v>1471</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>1467</v>
+        <v>1472</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>21</v>
@@ -33356,10 +33477,10 @@
         <v>87</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>1468</v>
+        <v>1473</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>1469</v>
+        <v>1474</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>15</v>
@@ -33376,13 +33497,13 @@
         <v>42323</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>1446</v>
+        <v>1451</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>1470</v>
+        <v>1475</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>1448</v>
+        <v>1453</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>21</v>
@@ -33399,13 +33520,13 @@
         <v>42324</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1430</v>
+        <v>1435</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>1471</v>
+        <v>1476</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>1432</v>
+        <v>1437</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>21</v>
@@ -33422,13 +33543,13 @@
         <v>42355</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>1472</v>
+        <v>1477</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>1473</v>
+        <v>1478</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>1474</v>
+        <v>1479</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>15</v>
@@ -33445,13 +33566,13 @@
         <v>42365</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1403</v>
+        <v>1408</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>1475</v>
+        <v>1480</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>1476</v>
+        <v>1481</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>21</v>
@@ -33471,10 +33592,10 @@
         <v>87</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>1477</v>
+        <v>1482</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>1380</v>
+        <v>1385</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>15</v>
@@ -33491,13 +33612,13 @@
         <v>42412</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>1430</v>
+        <v>1435</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>1478</v>
+        <v>1483</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>1479</v>
+        <v>1484</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>21</v>
@@ -33514,13 +33635,13 @@
         <v>42466</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1403</v>
+        <v>1408</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>1480</v>
+        <v>1485</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>1481</v>
+        <v>1486</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>21</v>
@@ -33537,13 +33658,13 @@
         <v>42484</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>1482</v>
+        <v>1487</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>1483</v>
+        <v>1488</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>1484</v>
+        <v>1489</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>21</v>
@@ -33560,13 +33681,13 @@
         <v>42490</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>1482</v>
+        <v>1487</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>1485</v>
+        <v>1490</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>1486</v>
+        <v>1491</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>21</v>
@@ -33583,13 +33704,13 @@
         <v>42526</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>1384</v>
+        <v>1389</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>1487</v>
+        <v>1492</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>1386</v>
+        <v>1391</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>21</v>
@@ -33606,13 +33727,13 @@
         <v>42532</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1384</v>
+        <v>1389</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>1488</v>
+        <v>1493</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>1386</v>
+        <v>1391</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>21</v>
@@ -33629,13 +33750,13 @@
         <v>42560</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>1482</v>
+        <v>1487</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>1489</v>
+        <v>1494</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>1486</v>
+        <v>1491</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>21</v>
@@ -33652,13 +33773,13 @@
         <v>42568</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>1482</v>
+        <v>1487</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>1490</v>
+        <v>1495</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>1486</v>
+        <v>1491</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>21</v>
@@ -33675,13 +33796,13 @@
         <v>42640</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>1446</v>
+        <v>1451</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>1491</v>
+        <v>1496</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>1448</v>
+        <v>1453</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>21</v>
@@ -33701,10 +33822,10 @@
         <v>87</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>1492</v>
+        <v>1497</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>1493</v>
+        <v>1498</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>15</v>
@@ -33721,13 +33842,13 @@
         <v>42652</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>1494</v>
+        <v>1499</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>1495</v>
+        <v>1500</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>1496</v>
+        <v>1501</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>21</v>
@@ -33747,10 +33868,10 @@
         <v>87</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>1497</v>
+        <v>1502</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>1498</v>
+        <v>1503</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>15</v>
@@ -33770,10 +33891,10 @@
         <v>87</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>1499</v>
+        <v>1504</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>1493</v>
+        <v>1498</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>15</v>
@@ -33790,13 +33911,13 @@
         <v>42735</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>1463</v>
+        <v>1468</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>1500</v>
+        <v>1505</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>1501</v>
+        <v>1506</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>21</v>
@@ -33813,13 +33934,13 @@
         <v>42750</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>1430</v>
+        <v>1435</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>1502</v>
+        <v>1507</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>1479</v>
+        <v>1484</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>21</v>
@@ -33836,13 +33957,13 @@
         <v>42756</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>1503</v>
+        <v>1508</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>1504</v>
+        <v>1509</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>15</v>
@@ -33859,13 +33980,13 @@
         <v>42756</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1384</v>
+        <v>1389</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>1505</v>
+        <v>1510</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>1386</v>
+        <v>1391</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>15</v>
@@ -33882,13 +34003,13 @@
         <v>42763</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>1430</v>
+        <v>1435</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>1506</v>
+        <v>1511</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>1507</v>
+        <v>1512</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>21</v>
@@ -33905,13 +34026,13 @@
         <v>42785</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>1446</v>
+        <v>1451</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>1508</v>
+        <v>1513</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>1448</v>
+        <v>1453</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>21</v>
@@ -33931,10 +34052,10 @@
         <v>87</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>1509</v>
+        <v>1514</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>1498</v>
+        <v>1503</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>15</v>
@@ -33951,13 +34072,13 @@
         <v>42797</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>1494</v>
+        <v>1499</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>1510</v>
+        <v>1515</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>1511</v>
+        <v>1516</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>15</v>
@@ -33974,13 +34095,13 @@
         <v>42800</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>1482</v>
+        <v>1487</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>1512</v>
+        <v>1517</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>1486</v>
+        <v>1491</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>21</v>
@@ -33997,13 +34118,13 @@
         <v>42813</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>1455</v>
+        <v>1460</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>1513</v>
+        <v>1518</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>1514</v>
+        <v>1519</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>21</v>
@@ -34020,13 +34141,13 @@
         <v>42822</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>1455</v>
+        <v>1460</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>1515</v>
+        <v>1520</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>1516</v>
+        <v>1521</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>21</v>
@@ -34046,10 +34167,10 @@
         <v>87</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>1517</v>
+        <v>1522</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>1493</v>
+        <v>1498</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>21</v>
@@ -34066,13 +34187,13 @@
         <v>42924</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>1518</v>
+        <v>1523</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>1519</v>
+        <v>1524</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>1520</v>
+        <v>1525</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>15</v>
@@ -34089,13 +34210,13 @@
         <v>42933</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>1455</v>
+        <v>1460</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>1521</v>
+        <v>1526</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>1514</v>
+        <v>1519</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>21</v>
@@ -34112,13 +34233,13 @@
         <v>42965</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>1522</v>
+        <v>1527</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>1523</v>
+        <v>1528</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>1524</v>
+        <v>1529</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>21</v>
@@ -34135,13 +34256,13 @@
         <v>42974</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>1494</v>
+        <v>1499</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>1525</v>
+        <v>1530</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>1526</v>
+        <v>1531</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>21</v>
@@ -34161,10 +34282,10 @@
         <v>87</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>1527</v>
+        <v>1532</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>1380</v>
+        <v>1385</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>15</v>
@@ -34184,10 +34305,10 @@
         <v>87</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>1528</v>
+        <v>1533</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>1380</v>
+        <v>1385</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>15</v>
@@ -34207,10 +34328,10 @@
         <v>87</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>1529</v>
+        <v>1534</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>1380</v>
+        <v>1385</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>15</v>
@@ -34230,10 +34351,10 @@
         <v>87</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>1530</v>
+        <v>1535</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>1380</v>
+        <v>1385</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>15</v>
@@ -34253,10 +34374,10 @@
         <v>87</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>1531</v>
+        <v>1536</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>1380</v>
+        <v>1385</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>15</v>
@@ -34273,13 +34394,13 @@
         <v>43089</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>1532</v>
+        <v>1537</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>1533</v>
+        <v>1538</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>1534</v>
+        <v>1539</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>21</v>
@@ -34296,13 +34417,13 @@
         <v>43092</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>1384</v>
+        <v>1389</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>1535</v>
+        <v>1540</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>1386</v>
+        <v>1391</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>21</v>
@@ -34319,13 +34440,13 @@
         <v>43094</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>1536</v>
+        <v>1541</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>1537</v>
+        <v>1542</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>1538</v>
+        <v>1543</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>21</v>
@@ -34342,13 +34463,13 @@
         <v>43100</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>1539</v>
+        <v>1544</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>1540</v>
+        <v>1545</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>1469</v>
+        <v>1474</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>21</v>
@@ -34365,13 +34486,13 @@
         <v>43105</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>1494</v>
+        <v>1499</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>1541</v>
+        <v>1546</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>1542</v>
+        <v>1547</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>15</v>
@@ -34388,13 +34509,13 @@
         <v>43112</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>1543</v>
+        <v>1548</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>1544</v>
+        <v>1549</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>1408</v>
+        <v>1413</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>21</v>
@@ -34411,13 +34532,13 @@
         <v>43134</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>1455</v>
+        <v>1460</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>1545</v>
+        <v>1550</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>1514</v>
+        <v>1519</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>21</v>
@@ -34434,13 +34555,13 @@
         <v>43171</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>1546</v>
+        <v>1551</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>1547</v>
+        <v>1552</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>1548</v>
+        <v>1553</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>21</v>
@@ -34457,13 +34578,13 @@
         <v>43195</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>1549</v>
+        <v>1554</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>1550</v>
+        <v>1555</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>1551</v>
+        <v>1556</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>21</v>
@@ -34480,13 +34601,13 @@
         <v>43206</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>1455</v>
+        <v>1460</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>1552</v>
+        <v>1557</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>1553</v>
+        <v>1558</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>21</v>
@@ -34503,13 +34624,13 @@
         <v>43212</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>1554</v>
+        <v>1559</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>1555</v>
+        <v>1560</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>1556</v>
+        <v>1561</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>15</v>
@@ -34529,10 +34650,10 @@
         <v>87</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>1557</v>
+        <v>1562</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>1380</v>
+        <v>1385</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>15</v>
@@ -34549,13 +34670,13 @@
         <v>43303</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>1482</v>
+        <v>1487</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>1558</v>
+        <v>1563</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>1559</v>
+        <v>1564</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>21</v>
@@ -34575,10 +34696,10 @@
         <v>87</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>1560</v>
+        <v>1565</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>1380</v>
+        <v>1385</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>15</v>
@@ -34595,13 +34716,13 @@
         <v>43310</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>1455</v>
+        <v>1460</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>1561</v>
+        <v>1566</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>1457</v>
+        <v>1462</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>21</v>
@@ -34618,13 +34739,13 @@
         <v>43316</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>1562</v>
+        <v>1567</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>1563</v>
+        <v>1568</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>1457</v>
+        <v>1462</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>21</v>
@@ -34641,13 +34762,13 @@
         <v>43317</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>1455</v>
+        <v>1460</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>1564</v>
+        <v>1569</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>1457</v>
+        <v>1462</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>21</v>
@@ -34664,13 +34785,13 @@
         <v>43319</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>1565</v>
+        <v>1570</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>1566</v>
+        <v>1571</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>1538</v>
+        <v>1543</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>15</v>
@@ -34690,10 +34811,10 @@
         <v>87</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>1567</v>
+        <v>1572</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>1493</v>
+        <v>1498</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>15</v>
@@ -34710,13 +34831,13 @@
         <v>43349</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>1384</v>
+        <v>1389</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>1568</v>
+        <v>1573</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>1386</v>
+        <v>1391</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>21</v>
@@ -34733,13 +34854,13 @@
         <v>43353</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>1455</v>
+        <v>1460</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>1569</v>
+        <v>1574</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>1570</v>
+        <v>1575</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>21</v>
@@ -34756,13 +34877,13 @@
         <v>43373</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>1571</v>
+        <v>1576</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>1572</v>
+        <v>1577</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>1573</v>
+        <v>1578</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>21</v>
@@ -34779,13 +34900,13 @@
         <v>43386</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>1472</v>
+        <v>1477</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>1574</v>
+        <v>1579</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>1474</v>
+        <v>1479</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>21</v>
@@ -34802,13 +34923,13 @@
         <v>43387</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>1575</v>
+        <v>1580</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>1576</v>
+        <v>1581</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>1577</v>
+        <v>1582</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>15</v>
@@ -34828,10 +34949,10 @@
         <v>87</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>1578</v>
+        <v>1583</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>1469</v>
+        <v>1474</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>21</v>
@@ -34848,13 +34969,13 @@
         <v>43442</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>1579</v>
+        <v>1584</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>1580</v>
+        <v>1585</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>1581</v>
+        <v>1586</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>21</v>
@@ -34874,10 +34995,10 @@
         <v>87</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>1582</v>
+        <v>1587</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>1583</v>
+        <v>1588</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>21</v>
@@ -34894,19 +35015,19 @@
         <v>43449</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>1584</v>
+        <v>1589</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>1585</v>
+        <v>1590</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>1586</v>
+        <v>1591</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>1588</v>
+        <v>1593</v>
       </c>
       <c r="G107" s="4" t="n">
         <v>3</v>
@@ -34917,19 +35038,19 @@
         <v>43495</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>1584</v>
+        <v>1589</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>1589</v>
+        <v>1594</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>1476</v>
+        <v>1481</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>1590</v>
+        <v>1595</v>
       </c>
       <c r="G108" s="4" t="n">
         <v>3</v>
@@ -34940,13 +35061,13 @@
         <v>43533</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>1591</v>
+        <v>1596</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>1592</v>
+        <v>1597</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>1593</v>
+        <v>1598</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>21</v>
@@ -34963,13 +35084,13 @@
         <v>43555</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>1403</v>
+        <v>1408</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>1594</v>
+        <v>1599</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>1595</v>
+        <v>1600</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>21</v>
@@ -34989,10 +35110,10 @@
         <v>87</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>1596</v>
+        <v>1601</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>1380</v>
+        <v>1385</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>15</v>
@@ -35012,10 +35133,10 @@
         <v>87</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>1597</v>
+        <v>1602</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>1380</v>
+        <v>1385</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>15</v>
@@ -35035,10 +35156,10 @@
         <v>87</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>1598</v>
+        <v>1603</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>1380</v>
+        <v>1385</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>15</v>
@@ -35055,13 +35176,13 @@
         <v>43577</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>1591</v>
+        <v>1596</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>1599</v>
+        <v>1604</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>1600</v>
+        <v>1605</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>21</v>
@@ -35078,13 +35199,13 @@
         <v>43604</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>1601</v>
+        <v>1606</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>1602</v>
+        <v>1607</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>1603</v>
+        <v>1608</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>21</v>
@@ -35101,13 +35222,13 @@
         <v>43638</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>1601</v>
+        <v>1606</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>1604</v>
+        <v>1609</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>1605</v>
+        <v>1610</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>21</v>
@@ -35124,19 +35245,19 @@
         <v>43651</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>1606</v>
+        <v>1611</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>1607</v>
+        <v>1612</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>1608</v>
+        <v>1613</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>1609</v>
+        <v>1614</v>
       </c>
       <c r="G117" s="4" t="n">
         <v>3</v>
@@ -35147,13 +35268,13 @@
         <v>43681</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>1610</v>
+        <v>1615</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>1611</v>
+        <v>1616</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>1612</v>
+        <v>1617</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>21</v>
@@ -35170,10 +35291,10 @@
         <v>43683</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>1613</v>
+        <v>1618</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>21</v>
@@ -35190,13 +35311,13 @@
         <v>43688</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>1610</v>
+        <v>1615</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>1615</v>
+        <v>1620</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>1612</v>
+        <v>1617</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>21</v>
@@ -35213,19 +35334,19 @@
         <v>43694</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>1608</v>
+        <v>1613</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>1618</v>
+        <v>1623</v>
       </c>
       <c r="G121" s="4" t="n">
         <v>3</v>
@@ -35236,13 +35357,13 @@
         <v>43704</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>1610</v>
+        <v>1615</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>1619</v>
+        <v>1624</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>1612</v>
+        <v>1617</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>21</v>
@@ -35259,10 +35380,10 @@
         <v>43744</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>1620</v>
+        <v>1625</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>1621</v>
+        <v>1626</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>21</v>
@@ -35279,19 +35400,19 @@
         <v>43768</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>1584</v>
+        <v>1589</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>1622</v>
+        <v>1627</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>1476</v>
+        <v>1481</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>1623</v>
+        <v>1628</v>
       </c>
       <c r="G124" s="4" t="n">
         <v>3</v>
@@ -35302,19 +35423,19 @@
         <v>43771</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>1624</v>
+        <v>1629</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>1625</v>
+        <v>1630</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>1457</v>
+        <v>1462</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>1626</v>
+        <v>1631</v>
       </c>
       <c r="G125" s="4" t="n">
         <v>2</v>
@@ -35325,19 +35446,19 @@
         <v>43775</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>1624</v>
+        <v>1629</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>1627</v>
+        <v>1632</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>1628</v>
+        <v>1633</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>1629</v>
+        <v>1634</v>
       </c>
       <c r="G126" s="4" t="n">
         <v>3</v>
@@ -35348,13 +35469,13 @@
         <v>43792</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>1630</v>
+        <v>1635</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>1631</v>
+        <v>1636</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>1612</v>
+        <v>1617</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>21</v>
@@ -35371,13 +35492,13 @@
         <v>43797</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>1384</v>
+        <v>1389</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>1632</v>
+        <v>1637</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>1386</v>
+        <v>1391</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>21</v>
@@ -35394,19 +35515,19 @@
         <v>43803</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>1633</v>
+        <v>1638</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>1634</v>
+        <v>1639</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>1635</v>
+        <v>1640</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>1636</v>
+        <v>1641</v>
       </c>
       <c r="G129" s="4" t="n">
         <v>3</v>
@@ -35417,13 +35538,13 @@
         <v>43820</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>1637</v>
+        <v>1642</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>1638</v>
+        <v>1643</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>1639</v>
+        <v>1644</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>21</v>
@@ -35440,13 +35561,13 @@
         <v>43821</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>1640</v>
+        <v>1645</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>1641</v>
+        <v>1646</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>1408</v>
+        <v>1413</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>21</v>
@@ -35463,19 +35584,19 @@
         <v>43823</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>1642</v>
+        <v>1647</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>1643</v>
+        <v>1648</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>1644</v>
+        <v>1649</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>1645</v>
+        <v>1650</v>
       </c>
       <c r="G132" s="4" t="n">
         <v>3</v>
@@ -35486,13 +35607,13 @@
         <v>43827</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>1640</v>
+        <v>1645</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>1646</v>
+        <v>1651</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>1408</v>
+        <v>1413</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>21</v>
@@ -35509,13 +35630,13 @@
         <v>43828</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>1647</v>
+        <v>1652</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>1648</v>
+        <v>1653</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>1583</v>
+        <v>1588</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>21</v>
@@ -35532,13 +35653,13 @@
         <v>43828</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>1649</v>
+        <v>1654</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>1650</v>
+        <v>1655</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>1651</v>
+        <v>1656</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>21</v>
@@ -35555,13 +35676,13 @@
         <v>43835</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>1653</v>
+        <v>1658</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>1654</v>
+        <v>1659</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>15</v>
@@ -35578,13 +35699,13 @@
         <v>43841</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>1472</v>
+        <v>1477</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>1655</v>
+        <v>1660</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>1474</v>
+        <v>1479</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>21</v>
@@ -35604,10 +35725,10 @@
         <v>87</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>1656</v>
+        <v>1661</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>1657</v>
+        <v>1662</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>21</v>
@@ -35624,19 +35745,19 @@
         <v>43885</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>1658</v>
+        <v>1663</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>1659</v>
+        <v>1664</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>1660</v>
+        <v>1665</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>1661</v>
+        <v>1666</v>
       </c>
       <c r="G139" s="4" t="n">
         <v>3</v>
@@ -35647,13 +35768,13 @@
         <v>43888</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>1662</v>
+        <v>1667</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>1654</v>
+        <v>1659</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>15</v>
@@ -35670,19 +35791,19 @@
         <v>43889</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>1663</v>
+        <v>1668</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>1664</v>
+        <v>1669</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>1570</v>
+        <v>1575</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>1665</v>
+        <v>1670</v>
       </c>
       <c r="G141" s="4" t="n">
         <v>2</v>
@@ -35693,19 +35814,19 @@
         <v>43893</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>1663</v>
+        <v>1668</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>1666</v>
+        <v>1671</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>1570</v>
+        <v>1575</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>1667</v>
+        <v>1672</v>
       </c>
       <c r="G142" s="4" t="n">
         <v>2</v>
@@ -35716,19 +35837,19 @@
         <v>43914</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>1624</v>
+        <v>1629</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>1668</v>
+        <v>1673</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>1669</v>
+        <v>1674</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>1670</v>
+        <v>1675</v>
       </c>
       <c r="G143" s="4" t="n">
         <v>3</v>
@@ -35739,13 +35860,13 @@
         <v>43958</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>1610</v>
+        <v>1615</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>1671</v>
+        <v>1676</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>1498</v>
+        <v>1503</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>21</v>
@@ -35765,10 +35886,10 @@
         <v>87</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>1672</v>
+        <v>1677</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>1498</v>
+        <v>1503</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>21</v>
@@ -35785,13 +35906,13 @@
         <v>43975</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>1384</v>
+        <v>1389</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>1673</v>
+        <v>1678</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>1386</v>
+        <v>1391</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>21</v>
@@ -35808,13 +35929,13 @@
         <v>44004</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>1674</v>
+        <v>1679</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>1675</v>
+        <v>1680</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>1676</v>
+        <v>1681</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>21</v>
@@ -35831,19 +35952,19 @@
         <v>44053</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>1677</v>
+        <v>1682</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>1678</v>
+        <v>1683</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>1383</v>
+        <v>1388</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>1679</v>
+        <v>1684</v>
       </c>
       <c r="G148" s="4" t="n">
         <v>3</v>
@@ -35854,13 +35975,13 @@
         <v>44073</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>1680</v>
+        <v>1685</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>1681</v>
+        <v>1686</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>1682</v>
+        <v>1687</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>21</v>
@@ -35877,13 +35998,13 @@
         <v>44104</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>1683</v>
+        <v>1688</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>1684</v>
+        <v>1689</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>1685</v>
+        <v>1690</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>21</v>
@@ -35900,19 +36021,19 @@
         <v>44113</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>1624</v>
+        <v>1629</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>1686</v>
+        <v>1691</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>1687</v>
+        <v>1692</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>1688</v>
+        <v>1693</v>
       </c>
       <c r="G151" s="4" t="n">
         <v>4</v>
@@ -35923,13 +36044,13 @@
         <v>44136</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>1689</v>
+        <v>1694</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>1690</v>
+        <v>1695</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>1691</v>
+        <v>1696</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>21</v>
@@ -35949,10 +36070,10 @@
         <v>87</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>1692</v>
+        <v>1697</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>1493</v>
+        <v>1498</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>21</v>
@@ -35969,13 +36090,13 @@
         <v>44177</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>1693</v>
+        <v>1698</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>1694</v>
+        <v>1699</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>1695</v>
+        <v>1700</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>21</v>
@@ -35992,13 +36113,13 @@
         <v>44182</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>1680</v>
+        <v>1685</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>1696</v>
+        <v>1701</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>1682</v>
+        <v>1687</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>21</v>
@@ -36015,13 +36136,13 @@
         <v>44183</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>1697</v>
+        <v>1702</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>1698</v>
+        <v>1703</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>1699</v>
+        <v>1704</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>21</v>
@@ -36038,13 +36159,13 @@
         <v>44184</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>1430</v>
+        <v>1435</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>1700</v>
+        <v>1705</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>1701</v>
+        <v>1706</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>21</v>
@@ -36061,13 +36182,13 @@
         <v>44184</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>1422</v>
+        <v>1427</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>1702</v>
+        <v>1707</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>1559</v>
+        <v>1564</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>21</v>
@@ -36084,13 +36205,13 @@
         <v>44191</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>1384</v>
+        <v>1389</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>1703</v>
+        <v>1708</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>1386</v>
+        <v>1391</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>21</v>
@@ -36107,13 +36228,13 @@
         <v>44193</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>1697</v>
+        <v>1702</v>
       </c>
       <c r="C160" s="2" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>1704</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>1699</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>21</v>
@@ -36130,19 +36251,19 @@
         <v>44199</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>1624</v>
+        <v>1629</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>1705</v>
+        <v>1710</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>1687</v>
+        <v>1692</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>1706</v>
+        <v>1711</v>
       </c>
       <c r="G161" s="4" t="n">
         <v>5</v>
@@ -36153,19 +36274,19 @@
         <v>44205</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>1624</v>
+        <v>1629</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>1707</v>
+        <v>1712</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>1687</v>
+        <v>1692</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>1708</v>
+        <v>1713</v>
       </c>
       <c r="G162" s="4" t="n">
         <v>5</v>
@@ -36176,19 +36297,19 @@
         <v>44210</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>1624</v>
+        <v>1629</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>1709</v>
+        <v>1714</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>1710</v>
+        <v>1715</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>1711</v>
+        <v>1716</v>
       </c>
       <c r="G163" s="4" t="n">
         <v>3</v>
@@ -36199,19 +36320,19 @@
         <v>44224</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>1549</v>
+        <v>1554</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>1712</v>
+        <v>1717</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>1551</v>
+        <v>1556</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>1713</v>
+        <v>1718</v>
       </c>
       <c r="G164" s="4" t="n">
         <v>2</v>
@@ -36222,19 +36343,19 @@
         <v>44227</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>1624</v>
+        <v>1629</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>1714</v>
+        <v>1719</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>1715</v>
+        <v>1720</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>1716</v>
+        <v>1721</v>
       </c>
       <c r="G165" s="4" t="n">
         <v>2</v>
@@ -36245,19 +36366,19 @@
         <v>44228</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>1624</v>
+        <v>1629</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>1717</v>
+        <v>1722</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>1718</v>
+        <v>1723</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>1719</v>
+        <v>1724</v>
       </c>
       <c r="G166" s="4" t="n">
         <v>2</v>
@@ -36268,19 +36389,19 @@
         <v>44233</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>1624</v>
+        <v>1629</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>1720</v>
+        <v>1725</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>1721</v>
+        <v>1726</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>1722</v>
+        <v>1727</v>
       </c>
       <c r="G167" s="4" t="n">
         <v>1</v>
@@ -36291,19 +36412,19 @@
         <v>44236</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>1624</v>
+        <v>1629</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>1723</v>
+        <v>1728</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>1724</v>
+        <v>1729</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>1725</v>
+        <v>1730</v>
       </c>
       <c r="G168" s="4" t="n">
         <v>1</v>
@@ -36314,19 +36435,19 @@
         <v>44240</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>1624</v>
+        <v>1629</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>1726</v>
+        <v>1731</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>1727</v>
+        <v>1732</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>1728</v>
+        <v>1733</v>
       </c>
       <c r="G169" s="4" t="n">
         <v>3</v>
@@ -36337,13 +36458,13 @@
         <v>44248</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>1601</v>
+        <v>1606</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>1729</v>
+        <v>1734</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>1730</v>
+        <v>1735</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>21</v>
@@ -36360,13 +36481,13 @@
         <v>44276</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>1731</v>
+        <v>1736</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>1732</v>
+        <v>1737</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>1733</v>
+        <v>1738</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>15</v>
@@ -36383,19 +36504,19 @@
         <v>44279</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>1549</v>
+        <v>1554</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>1734</v>
+        <v>1739</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>1551</v>
+        <v>1556</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>1735</v>
+        <v>1740</v>
       </c>
       <c r="G172" s="4" t="n">
         <v>2</v>
@@ -36406,13 +36527,13 @@
         <v>44282</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>1680</v>
+        <v>1685</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>1736</v>
+        <v>1741</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>1737</v>
+        <v>1742</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>21</v>
@@ -36429,13 +36550,13 @@
         <v>44285</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>1680</v>
+        <v>1685</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>1738</v>
+        <v>1743</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>1739</v>
+        <v>1744</v>
       </c>
       <c r="E174" s="3" t="s">
         <v>21</v>
@@ -36452,13 +36573,13 @@
         <v>44330</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>1740</v>
+        <v>1745</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>1741</v>
+        <v>1746</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>1742</v>
+        <v>1747</v>
       </c>
       <c r="E175" s="3" t="s">
         <v>21</v>
@@ -36475,13 +36596,13 @@
         <v>44334</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>1743</v>
+        <v>1748</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>1744</v>
+        <v>1749</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>1745</v>
+        <v>1750</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>21</v>
@@ -36498,13 +36619,13 @@
         <v>44342</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>1740</v>
+        <v>1745</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>1746</v>
+        <v>1751</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>1747</v>
+        <v>1752</v>
       </c>
       <c r="E177" s="3" t="s">
         <v>21</v>
@@ -36521,13 +36642,13 @@
         <v>44455</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>1748</v>
+        <v>1753</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>1749</v>
+        <v>1754</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>1750</v>
+        <v>1755</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>21</v>
@@ -36544,19 +36665,19 @@
         <v>44470</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>1751</v>
+        <v>1756</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>1660</v>
+        <v>1665</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>1753</v>
+        <v>1758</v>
       </c>
       <c r="G179" s="4" t="n">
         <v>3</v>
@@ -36567,13 +36688,13 @@
         <v>44484</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
       <c r="E180" s="3" t="s">
         <v>21</v>
@@ -36590,19 +36711,19 @@
         <v>44487</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>1624</v>
+        <v>1629</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>1756</v>
+        <v>1761</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>1758</v>
+        <v>1763</v>
       </c>
       <c r="G181" s="4" t="n">
         <v>4</v>
@@ -36613,13 +36734,13 @@
         <v>44494</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>21</v>
@@ -36636,13 +36757,13 @@
         <v>44498</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>1384</v>
+        <v>1389</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>1386</v>
+        <v>1391</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>21</v>
@@ -36659,13 +36780,13 @@
         <v>44507</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>1422</v>
+        <v>1427</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>1559</v>
+        <v>1564</v>
       </c>
       <c r="E184" s="3" t="s">
         <v>21</v>
@@ -36682,19 +36803,19 @@
         <v>44514</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>1765</v>
+        <v>1770</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>1766</v>
+        <v>1771</v>
       </c>
       <c r="G185" s="4" t="n">
         <v>2</v>
@@ -36705,19 +36826,19 @@
         <v>44515</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>1768</v>
+        <v>1773</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>1514</v>
+        <v>1519</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>1769</v>
+        <v>1774</v>
       </c>
       <c r="G186" s="4" t="n">
         <v>1</v>
@@ -36728,19 +36849,19 @@
         <v>44517</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>1770</v>
+        <v>1775</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>1771</v>
+        <v>1776</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>1772</v>
+        <v>1777</v>
       </c>
       <c r="G187" s="4" t="n">
         <v>5</v>
@@ -36751,19 +36872,19 @@
         <v>44517</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>1773</v>
+        <v>1778</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>1774</v>
+        <v>1779</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>1775</v>
+        <v>1780</v>
       </c>
       <c r="G188" s="4" t="n">
         <v>1</v>
@@ -36774,19 +36895,19 @@
         <v>44521</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>1776</v>
+        <v>1781</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>1777</v>
+        <v>1782</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>1778</v>
+        <v>1783</v>
       </c>
       <c r="G189" s="4" t="n">
         <v>2</v>
@@ -36797,13 +36918,13 @@
         <v>44530</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>1680</v>
+        <v>1685</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>1779</v>
+        <v>1784</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>1780</v>
+        <v>1785</v>
       </c>
       <c r="E190" s="3" t="s">
         <v>21</v>
@@ -36820,19 +36941,19 @@
         <v>44531</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>1781</v>
+        <v>1786</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>1782</v>
+        <v>1787</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>1783</v>
+        <v>1788</v>
       </c>
       <c r="G191" s="4" t="n">
         <v>4</v>
@@ -36843,19 +36964,19 @@
         <v>44534</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>1658</v>
+        <v>1663</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>1784</v>
+        <v>1789</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>1785</v>
+        <v>1790</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>1786</v>
+        <v>1791</v>
       </c>
       <c r="G192" s="4" t="n">
         <v>2</v>
@@ -36866,13 +36987,13 @@
         <v>44535</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>1680</v>
+        <v>1685</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>1787</v>
+        <v>1792</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>1788</v>
+        <v>1793</v>
       </c>
       <c r="E193" s="3" t="s">
         <v>21</v>
@@ -36889,13 +37010,13 @@
         <v>44538</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>1680</v>
+        <v>1685</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>1789</v>
+        <v>1794</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>1790</v>
+        <v>1795</v>
       </c>
       <c r="E194" s="3" t="s">
         <v>21</v>
@@ -36912,19 +37033,19 @@
         <v>44539</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>1658</v>
+        <v>1663</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>1791</v>
+        <v>1796</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>1792</v>
+        <v>1797</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>1793</v>
+        <v>1798</v>
       </c>
       <c r="G195" s="4" t="n">
         <v>4</v>
@@ -36935,19 +37056,19 @@
         <v>44542</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>1658</v>
+        <v>1663</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>1794</v>
+        <v>1799</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>1795</v>
+        <v>1800</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>1796</v>
+        <v>1801</v>
       </c>
       <c r="G196" s="4" t="n">
         <v>2</v>
@@ -36958,19 +37079,19 @@
         <v>44545</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>1658</v>
+        <v>1663</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>1797</v>
+        <v>1802</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>1798</v>
+        <v>1803</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>1799</v>
+        <v>1804</v>
       </c>
       <c r="G197" s="4" t="n">
         <v>2</v>
@@ -36981,19 +37102,19 @@
         <v>44553</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>1658</v>
+        <v>1663</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>1800</v>
+        <v>1805</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>1801</v>
+        <v>1806</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>1802</v>
+        <v>1807</v>
       </c>
       <c r="G198" s="4" t="n">
         <v>1</v>
@@ -37004,13 +37125,13 @@
         <v>44556</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>1680</v>
+        <v>1685</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>1803</v>
+        <v>1808</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>1804</v>
+        <v>1809</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>21</v>
@@ -37027,13 +37148,13 @@
         <v>44557</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>1403</v>
+        <v>1408</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>1805</v>
+        <v>1810</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>1595</v>
+        <v>1600</v>
       </c>
       <c r="E200" s="3" t="s">
         <v>21</v>
@@ -37050,13 +37171,13 @@
         <v>44561</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>1680</v>
+        <v>1685</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>1806</v>
+        <v>1811</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>1807</v>
+        <v>1812</v>
       </c>
       <c r="E201" s="3" t="s">
         <v>21</v>
@@ -37073,19 +37194,19 @@
         <v>44561</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>1808</v>
+        <v>1813</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>1809</v>
+        <v>1814</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>1810</v>
+        <v>1815</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
       <c r="G202" s="4" t="n">
         <v>5</v>
@@ -37096,19 +37217,19 @@
         <v>44564</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>1642</v>
+        <v>1647</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>1812</v>
+        <v>1817</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>1514</v>
+        <v>1519</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
       <c r="G203" s="4" t="n">
         <v>1</v>
@@ -37119,19 +37240,19 @@
         <v>44570</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>1815</v>
+        <v>1820</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>1816</v>
+        <v>1821</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>1817</v>
+        <v>1822</v>
       </c>
       <c r="G204" s="4" t="n">
         <v>4</v>
@@ -37142,13 +37263,13 @@
         <v>44576</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>1680</v>
+        <v>1685</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>1818</v>
+        <v>1823</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>1819</v>
+        <v>1824</v>
       </c>
       <c r="E205" s="3" t="s">
         <v>21</v>
@@ -37165,19 +37286,19 @@
         <v>44587</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>1606</v>
+        <v>1611</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>1820</v>
+        <v>1825</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>1785</v>
+        <v>1790</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>1821</v>
+        <v>1826</v>
       </c>
       <c r="G206" s="4" t="n">
         <v>4</v>
@@ -37188,19 +37309,19 @@
         <v>44590</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>1642</v>
+        <v>1647</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>1822</v>
+        <v>1827</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>1551</v>
+        <v>1556</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
       <c r="G207" s="4" t="n">
         <v>4</v>
@@ -37211,19 +37332,19 @@
         <v>44594</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>1823</v>
+        <v>1828</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>1824</v>
+        <v>1829</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>1825</v>
+        <v>1830</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
       <c r="G208" s="4" t="n">
         <v>5</v>
@@ -37234,13 +37355,13 @@
         <v>44602</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>1826</v>
+        <v>1831</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>1827</v>
+        <v>1832</v>
       </c>
       <c r="E209" s="3" t="s">
         <v>21</v>
@@ -37257,13 +37378,13 @@
         <v>44605</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>1740</v>
+        <v>1745</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>1828</v>
+        <v>1833</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>1829</v>
+        <v>1834</v>
       </c>
       <c r="E210" s="3" t="s">
         <v>21</v>
@@ -37280,19 +37401,19 @@
         <v>44606</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>1830</v>
+        <v>1835</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>1831</v>
+        <v>1836</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>1832</v>
+        <v>1837</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>1833</v>
+        <v>1838</v>
       </c>
       <c r="G211" s="4" t="n">
         <v>5</v>
@@ -37303,19 +37424,19 @@
         <v>44616</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>1808</v>
+        <v>1813</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>1834</v>
+        <v>1839</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>1835</v>
+        <v>1840</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>1836</v>
+        <v>1841</v>
       </c>
       <c r="G212" s="4" t="n">
         <v>5</v>
@@ -37326,13 +37447,13 @@
         <v>44618</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>1579</v>
+        <v>1584</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>1837</v>
+        <v>1842</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>1520</v>
+        <v>1525</v>
       </c>
       <c r="E213" s="3" t="s">
         <v>21</v>
@@ -37349,13 +37470,13 @@
         <v>44619</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>1384</v>
+        <v>1389</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>1838</v>
+        <v>1843</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>1839</v>
+        <v>1844</v>
       </c>
       <c r="E214" s="3" t="s">
         <v>21</v>
@@ -37372,19 +37493,19 @@
         <v>44636</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>1840</v>
+        <v>1845</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>1841</v>
+        <v>1846</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>1429</v>
+        <v>1434</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>1842</v>
+        <v>1847</v>
       </c>
       <c r="G215" s="4" t="n">
         <v>1</v>
@@ -37395,13 +37516,13 @@
         <v>44639</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>1680</v>
+        <v>1685</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>1843</v>
+        <v>1848</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>1844</v>
+        <v>1849</v>
       </c>
       <c r="E216" s="3" t="s">
         <v>21</v>
@@ -37418,19 +37539,19 @@
         <v>44654</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>1845</v>
+        <v>1850</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>1816</v>
+        <v>1821</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>1821</v>
+        <v>1826</v>
       </c>
       <c r="G217" s="4" t="n">
         <v>4</v>
@@ -37441,13 +37562,13 @@
         <v>44654</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>1422</v>
+        <v>1427</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>1846</v>
+        <v>1851</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>1559</v>
+        <v>1564</v>
       </c>
       <c r="E218" s="3" t="s">
         <v>21</v>
@@ -37464,19 +37585,19 @@
         <v>44661</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>1808</v>
+        <v>1813</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>1847</v>
+        <v>1852</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>1848</v>
+        <v>1853</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>1849</v>
+        <v>1854</v>
       </c>
       <c r="G219" s="4" t="n">
         <v>5</v>
@@ -37487,19 +37608,19 @@
         <v>44666</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>1850</v>
+        <v>1855</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>1428</v>
+        <v>1433</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>1429</v>
+        <v>1434</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>1851</v>
+        <v>1856</v>
       </c>
       <c r="G220" s="4" t="n">
         <v>5</v>
@@ -37510,19 +37631,19 @@
         <v>44675</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>1808</v>
+        <v>1813</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>1852</v>
+        <v>1857</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>1848</v>
+        <v>1853</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>1849</v>
+        <v>1854</v>
       </c>
       <c r="G221" s="4" t="n">
         <v>4</v>
@@ -37533,19 +37654,19 @@
         <v>44689</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>1808</v>
+        <v>1813</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>1853</v>
+        <v>1858</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>1810</v>
+        <v>1815</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>1854</v>
+        <v>1859</v>
       </c>
       <c r="G222" s="4" t="n">
         <v>5</v>
@@ -37556,13 +37677,13 @@
         <v>44691</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>1855</v>
+        <v>1860</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>1856</v>
+        <v>1861</v>
       </c>
       <c r="E223" s="3" t="s">
         <v>21</v>
@@ -37579,13 +37700,13 @@
         <v>44701</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>1422</v>
+        <v>1427</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>1857</v>
+        <v>1862</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>1392</v>
+        <v>1397</v>
       </c>
       <c r="E224" s="3" t="s">
         <v>21</v>
@@ -37602,19 +37723,19 @@
         <v>44702</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>1808</v>
+        <v>1813</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>1858</v>
+        <v>1863</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>1848</v>
+        <v>1853</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>1849</v>
+        <v>1854</v>
       </c>
       <c r="G225" s="4" t="n">
         <v>3</v>
@@ -37625,13 +37746,13 @@
         <v>44742</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>1859</v>
+        <v>1864</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>1860</v>
+        <v>1865</v>
       </c>
       <c r="E226" s="3" t="s">
         <v>21</v>
@@ -37648,19 +37769,19 @@
         <v>44767</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>1606</v>
+        <v>1611</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>1861</v>
+        <v>1866</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>1785</v>
+        <v>1790</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>1862</v>
+        <v>1867</v>
       </c>
       <c r="G227" s="4" t="n">
         <v>3</v>
@@ -37671,13 +37792,13 @@
         <v>44777</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>1680</v>
+        <v>1685</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>1863</v>
+        <v>1868</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>1844</v>
+        <v>1849</v>
       </c>
       <c r="E228" s="3" t="s">
         <v>21</v>
@@ -37694,19 +37815,19 @@
         <v>44797</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>1808</v>
+        <v>1813</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>1864</v>
+        <v>1869</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>1848</v>
+        <v>1853</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
       <c r="G229" s="4" t="n">
         <v>3</v>
@@ -37717,13 +37838,13 @@
         <v>44814</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>1865</v>
+        <v>1870</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>1866</v>
+        <v>1871</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>1867</v>
+        <v>1872</v>
       </c>
       <c r="E230" s="3" t="s">
         <v>21</v>
@@ -37740,19 +37861,19 @@
         <v>44816</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>1808</v>
+        <v>1813</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>1868</v>
+        <v>1873</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>1848</v>
+        <v>1853</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>1869</v>
+        <v>1874</v>
       </c>
       <c r="G231" s="4" t="n">
         <v>4</v>
@@ -37763,19 +37884,19 @@
         <v>44903</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>1830</v>
+        <v>1835</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>1870</v>
+        <v>1875</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>1871</v>
+        <v>1876</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>1872</v>
+        <v>1877</v>
       </c>
       <c r="G232" s="4" t="n">
         <v>5</v>
@@ -37786,19 +37907,19 @@
         <v>44916</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>1830</v>
+        <v>1835</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>1873</v>
+        <v>1878</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>1874</v>
+        <v>1879</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>1875</v>
+        <v>1880</v>
       </c>
       <c r="G233" s="4" t="n">
         <v>3</v>
@@ -37809,19 +37930,19 @@
         <v>44926</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>1876</v>
+        <v>1881</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>1877</v>
+        <v>1882</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>1878</v>
+        <v>1883</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>1869</v>
+        <v>1874</v>
       </c>
       <c r="G234" s="4" t="n">
         <v>5</v>
@@ -37832,19 +37953,19 @@
         <v>44926</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>1879</v>
+        <v>1884</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>1880</v>
+        <v>1885</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>1878</v>
+        <v>1883</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>1881</v>
+        <v>1886</v>
       </c>
       <c r="G235" s="4" t="n">
         <v>2</v>
@@ -37855,13 +37976,13 @@
         <v>44932</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>1384</v>
+        <v>1389</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>1882</v>
+        <v>1887</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>1386</v>
+        <v>1391</v>
       </c>
       <c r="E236" s="3" t="s">
         <v>21</v>
@@ -37878,19 +37999,19 @@
         <v>44950</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>1830</v>
+        <v>1835</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>1883</v>
+        <v>1888</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>1874</v>
+        <v>1879</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
       <c r="G237" s="4" t="n">
         <v>2</v>
@@ -37901,13 +38022,13 @@
         <v>44957</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>1680</v>
+        <v>1685</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>1884</v>
+        <v>1889</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>1885</v>
+        <v>1890</v>
       </c>
       <c r="E238" s="3" t="s">
         <v>21</v>
@@ -37924,19 +38045,19 @@
         <v>44996</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>1886</v>
+        <v>1891</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>1816</v>
+        <v>1821</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>1887</v>
+        <v>1892</v>
       </c>
       <c r="G239" s="4" t="n">
         <v>2</v>
@@ -37947,13 +38068,13 @@
         <v>45008</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>1888</v>
+        <v>1893</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E240" s="3" t="s">
         <v>21</v>
@@ -37970,10 +38091,10 @@
         <v>45013</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>1890</v>
+        <v>1895</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="E241" s="3" t="s">
         <v>21</v>
@@ -37990,19 +38111,19 @@
         <v>45059</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>1892</v>
+        <v>1897</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>1816</v>
+        <v>1821</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>1854</v>
+        <v>1859</v>
       </c>
       <c r="G242" s="4" t="n">
         <v>5</v>
@@ -38013,19 +38134,19 @@
         <v>45088</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>1893</v>
+        <v>1898</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>1894</v>
+        <v>1899</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>1429</v>
+        <v>1434</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>1854</v>
+        <v>1859</v>
       </c>
       <c r="G243" s="4" t="n">
         <v>1</v>
@@ -38036,13 +38157,13 @@
         <v>45129</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>1895</v>
+        <v>1900</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>1457</v>
+        <v>1462</v>
       </c>
       <c r="E244" s="3" t="s">
         <v>21</v>
@@ -38059,13 +38180,13 @@
         <v>45143</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>1896</v>
+        <v>1901</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>1514</v>
+        <v>1519</v>
       </c>
       <c r="E245" s="3" t="s">
         <v>21</v>
@@ -38082,13 +38203,13 @@
         <v>45150</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>1384</v>
+        <v>1389</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>1897</v>
+        <v>1902</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>1386</v>
+        <v>1391</v>
       </c>
       <c r="E246" s="3" t="s">
         <v>21</v>
@@ -38105,13 +38226,13 @@
         <v>45164</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>1384</v>
+        <v>1389</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>1898</v>
+        <v>1903</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>1386</v>
+        <v>1391</v>
       </c>
       <c r="E247" s="3" t="s">
         <v>21</v>
@@ -38128,19 +38249,19 @@
         <v>45170</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>1830</v>
+        <v>1835</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>1899</v>
+        <v>1904</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>1871</v>
+        <v>1876</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>1900</v>
+        <v>1905</v>
       </c>
       <c r="G248" s="4" t="n">
         <v>5</v>
@@ -38151,19 +38272,19 @@
         <v>45171</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>1642</v>
+        <v>1647</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>1901</v>
+        <v>1906</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>1669</v>
+        <v>1674</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>1881</v>
+        <v>1886</v>
       </c>
       <c r="G249" s="4" t="n">
         <v>3</v>
@@ -38174,19 +38295,19 @@
         <v>45186</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>1642</v>
+        <v>1647</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>1902</v>
+        <v>1907</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>1551</v>
+        <v>1556</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>1875</v>
+        <v>1880</v>
       </c>
       <c r="G250" s="4" t="n">
         <v>5</v>
@@ -38197,19 +38318,19 @@
         <v>45196</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>1642</v>
+        <v>1647</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>1903</v>
+        <v>1908</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>1669</v>
+        <v>1674</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>1904</v>
+        <v>1909</v>
       </c>
       <c r="G251" s="4" t="n">
         <v>4</v>
@@ -38220,19 +38341,19 @@
         <v>45206</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>1905</v>
+        <v>1910</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>1906</v>
+        <v>1911</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>1907</v>
+        <v>1912</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>1849</v>
+        <v>1854</v>
       </c>
       <c r="G252" s="4" t="n">
         <v>1</v>
@@ -38243,10 +38364,10 @@
         <v>45230</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>1908</v>
+        <v>1913</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>1909</v>
+        <v>1914</v>
       </c>
       <c r="E253" s="3" t="s">
         <v>15</v>
@@ -38262,20 +38383,20 @@
       <c r="A254" s="1" t="n">
         <v>45232</v>
       </c>
-      <c r="B254" s="12" t="s">
-        <v>1910</v>
-      </c>
-      <c r="C254" s="12" t="s">
-        <v>1911</v>
-      </c>
-      <c r="D254" s="12" t="s">
-        <v>1912</v>
+      <c r="B254" s="13" t="s">
+        <v>1915</v>
+      </c>
+      <c r="C254" s="13" t="s">
+        <v>1916</v>
+      </c>
+      <c r="D254" s="13" t="s">
+        <v>1917</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>1869</v>
+        <v>1874</v>
       </c>
       <c r="G254" s="4" t="n">
         <v>4</v>
@@ -38286,19 +38407,19 @@
         <v>45265</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>1584</v>
+        <v>1589</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>1913</v>
+        <v>1918</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>1914</v>
+        <v>1919</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>1862</v>
+        <v>1867</v>
       </c>
       <c r="G255" s="4" t="n">
         <v>4</v>
@@ -38309,13 +38430,13 @@
         <v>45296</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>1915</v>
+        <v>1920</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>1916</v>
+        <v>1921</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>1917</v>
+        <v>1922</v>
       </c>
       <c r="E256" s="3" t="s">
         <v>21</v>
@@ -38332,19 +38453,19 @@
         <v>45366</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>1584</v>
+        <v>1589</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>1918</v>
+        <v>1923</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>1914</v>
+        <v>1919</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F257" s="3" t="s">
-        <v>1821</v>
+        <v>1826</v>
       </c>
       <c r="G257" s="4" t="n">
         <v>5</v>
@@ -38355,13 +38476,13 @@
         <v>45371</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>1919</v>
+        <v>1924</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>1920</v>
+        <v>1925</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>1921</v>
+        <v>1926</v>
       </c>
       <c r="E258" s="3" t="s">
         <v>21</v>
@@ -38378,13 +38499,13 @@
         <v>45394</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>1922</v>
+        <v>1927</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>1923</v>
+        <v>1928</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>1924</v>
+        <v>1929</v>
       </c>
       <c r="E259" s="3" t="s">
         <v>21</v>
@@ -38401,19 +38522,19 @@
         <v>45395</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>1925</v>
+        <v>1930</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>1926</v>
+        <v>1931</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>1927</v>
+        <v>1932</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F260" s="3" t="s">
-        <v>1869</v>
+        <v>1874</v>
       </c>
       <c r="G260" s="4" t="n">
         <v>4</v>
@@ -38424,19 +38545,19 @@
         <v>45397</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>1928</v>
+        <v>1933</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>1929</v>
+        <v>1934</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>1469</v>
+        <v>1474</v>
       </c>
       <c r="E261" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F261" s="3" t="s">
-        <v>1930</v>
+        <v>1935</v>
       </c>
       <c r="G261" s="4" t="n">
         <v>4</v>
@@ -38447,19 +38568,19 @@
         <v>45412</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>1680</v>
+        <v>1685</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>1931</v>
+        <v>1936</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>1932</v>
+        <v>1937</v>
       </c>
       <c r="E262" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F262" s="3" t="s">
-        <v>1933</v>
+        <v>1938</v>
       </c>
       <c r="G262" s="4" t="n">
         <v>5</v>
@@ -38470,19 +38591,19 @@
         <v>45412</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>1934</v>
+        <v>1939</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>1935</v>
+        <v>1940</v>
       </c>
       <c r="E263" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F263" s="3" t="s">
-        <v>1936</v>
+        <v>1941</v>
       </c>
       <c r="G263" s="4" t="n">
         <v>4</v>
@@ -38490,55 +38611,55 @@
     </row>
     <row r="264" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B264" s="2" t="s">
-        <v>1584</v>
+        <v>1589</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>1937</v>
+        <v>1942</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>1938</v>
+        <v>1943</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="F264" s="3" t="s">
-        <v>1939</v>
-      </c>
-    </row>
-    <row r="265" s="14" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="265" s="15" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A265" s="1"/>
       <c r="B265" s="2" t="s">
-        <v>1652</v>
-      </c>
-      <c r="C265" s="13" t="s">
-        <v>1940</v>
+        <v>1657</v>
+      </c>
+      <c r="C265" s="14" t="s">
+        <v>1945</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>1860</v>
+        <v>1865</v>
       </c>
       <c r="E265" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F265" s="3" t="s">
-        <v>1941</v>
+        <v>1946</v>
       </c>
       <c r="G265" s="4"/>
     </row>
     <row r="266" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B266" s="2" t="s">
-        <v>1384</v>
+        <v>1389</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>1942</v>
+        <v>1947</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>1839</v>
+        <v>1844</v>
       </c>
       <c r="E266" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F266" s="3" t="s">
-        <v>1943</v>
+        <v>1948</v>
       </c>
     </row>
   </sheetData>
